--- a/part2/all_stats/mit.xlsx
+++ b/part2/all_stats/mit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\code\security_lab5\part2\all_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97262A6-4918-49DF-949A-3D582B06D84A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70535C1C-9E87-4CB2-A83F-616009A0585A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10845" activeTab="1" xr2:uid="{AAD051BA-182C-4054-9106-DCB3AC82AA85}"/>
   </bookViews>
@@ -112,9 +112,6 @@
     <t>VPN_mit_0</t>
   </si>
   <si>
-    <t>files</t>
-  </si>
-  <si>
     <t>VPN- MIT- 1</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   <si>
     <t>TOR-MIT-9</t>
   </si>
+  <si>
+    <t>Connection-Site</t>
+  </si>
 </sst>
 </file>
 
@@ -238,18 +238,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
+        <fgColor rgb="FF66CCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -257,20 +257,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -279,7 +298,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66CCFF"/>
       <color rgb="FF00FF00"/>
+      <color rgb="FFCC66FF"/>
+      <color rgb="FFFF66CC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -327,7 +349,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Packets Sent Count</a:t>
             </a:r>
           </a:p>
@@ -373,11 +399,11 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>BRO</c:v>
+            <c:v>BRO Count</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="92D050"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -492,11 +518,11 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>VPN</c:v>
+            <c:v>VPN Count</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -611,11 +637,11 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>TOR</c:v>
+            <c:v>TOR Count</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:srgbClr val="CC66FF"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -959,13 +985,25 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.2256554747940503E-2"/>
+          <c:y val="0.89132510895454897"/>
+          <c:w val="0.42382014044945204"/>
+          <c:h val="6.578991395683445E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1012,10 +1050,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1073,8 +1108,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average Packet Length</a:t>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Average Packet Size</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1119,11 +1158,14 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>BRO</c:v>
+            <c:v>BRO Avg</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1132,7 +1174,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:numFmt formatCode="0" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1239,11 +1281,11 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>VPN</c:v>
+            <c:v>VPN Avg</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="92D050"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1252,7 +1294,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:numFmt formatCode="0" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1261,7 +1303,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -1359,11 +1401,11 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>TOR</c:v>
+            <c:v>TOR Avg</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:srgbClr val="66CCFF"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1372,7 +1414,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:numFmt formatCode="0" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1708,13 +1750,25 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.2867548994830909E-2"/>
+          <c:y val="0.88214943546257896"/>
+          <c:w val="0.30779666847153098"/>
+          <c:h val="6.6568513255369707E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1761,10 +1815,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -2882,16 +2933,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2919,15 +2970,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>80962</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>14286</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>385762</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3252,23 +3303,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2002B8D6-12E1-4461-B2C4-E84F12E1486F}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L331"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection sqref="A1:L321"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3305,42 +3355,42 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="11">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="11">
         <v>1137</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="11">
         <v>751.76</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="11">
         <v>54</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="11">
         <v>1514</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="11">
         <v>0.58740000000000003</v>
       </c>
-      <c r="J2" s="3">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
+      <c r="J2" s="12">
+        <v>1</v>
+      </c>
+      <c r="K2" s="11">
         <v>3.38</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="11">
         <v>1.071</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -3375,7 +3425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -3410,7 +3460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -3445,7 +3495,7 @@
         <v>1.0760000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1</v>
       </c>
@@ -3480,7 +3530,7 @@
         <v>1.841</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -3515,7 +3565,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1</v>
       </c>
@@ -3550,7 +3600,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1</v>
       </c>
@@ -3585,7 +3635,7 @@
         <v>2.0449999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1</v>
       </c>
@@ -3620,7 +3670,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1</v>
       </c>
@@ -3655,7 +3705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1</v>
       </c>
@@ -3691,42 +3741,42 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
+      <c r="A13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="11">
         <v>931</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="11">
         <v>866.96</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="11">
         <v>54</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="11">
         <v>1514</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="11">
         <v>0.27950000000000003</v>
       </c>
-      <c r="J13" s="3">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2">
+      <c r="J13" s="12">
+        <v>1</v>
+      </c>
+      <c r="K13" s="11">
         <v>4.88</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="11">
         <v>0.99099999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>1</v>
       </c>
@@ -3761,7 +3811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1</v>
       </c>
@@ -3796,7 +3846,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>1</v>
       </c>
@@ -3831,7 +3881,7 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1</v>
       </c>
@@ -3866,7 +3916,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>1</v>
       </c>
@@ -3901,7 +3951,7 @@
         <v>1.4419999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>1</v>
       </c>
@@ -3936,7 +3986,7 @@
         <v>0.92200000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>1</v>
       </c>
@@ -3971,7 +4021,7 @@
         <v>1.4419999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>1</v>
       </c>
@@ -4006,7 +4056,7 @@
         <v>0.99099999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>1</v>
       </c>
@@ -4041,7 +4091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>1</v>
       </c>
@@ -4077,42 +4127,42 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
+      <c r="A24" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="11">
+        <v>0</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="11">
         <v>1027</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="11">
         <v>820.55</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="11">
         <v>54</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="11">
         <v>1514</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="11">
         <v>0.39639999999999997</v>
       </c>
-      <c r="J24" s="3">
-        <v>1</v>
-      </c>
-      <c r="K24" s="2">
+      <c r="J24" s="12">
+        <v>1</v>
+      </c>
+      <c r="K24" s="11">
         <v>5.14</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="11">
         <v>0.27</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>1</v>
       </c>
@@ -4147,7 +4197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>1</v>
       </c>
@@ -4182,7 +4232,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>1</v>
       </c>
@@ -4217,7 +4267,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>1</v>
       </c>
@@ -4252,7 +4302,7 @@
         <v>0.73599999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>1</v>
       </c>
@@ -4287,7 +4337,7 @@
         <v>0.66100000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>1</v>
       </c>
@@ -4322,7 +4372,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>1</v>
       </c>
@@ -4357,7 +4407,7 @@
         <v>0.57899999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>1</v>
       </c>
@@ -4392,7 +4442,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>1</v>
       </c>
@@ -4427,7 +4477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>1</v>
       </c>
@@ -4463,42 +4513,42 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="2">
-        <v>0</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
+      <c r="A35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="11">
+        <v>0</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="11">
         <v>932</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="11">
         <v>862.75</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="11">
         <v>54</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="11">
         <v>1514</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="11">
         <v>0.4577</v>
       </c>
-      <c r="J35" s="3">
-        <v>1</v>
-      </c>
-      <c r="K35" s="2">
+      <c r="J35" s="12">
+        <v>1</v>
+      </c>
+      <c r="K35" s="11">
         <v>2.87</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="11">
         <v>0.878</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>1</v>
       </c>
@@ -4533,7 +4583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>1</v>
       </c>
@@ -4568,7 +4618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>1</v>
       </c>
@@ -4603,7 +4653,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>1</v>
       </c>
@@ -4638,7 +4688,7 @@
         <v>1.7969999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>1</v>
       </c>
@@ -4673,7 +4723,7 @@
         <v>1.8440000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>1</v>
       </c>
@@ -4708,7 +4758,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>1</v>
       </c>
@@ -4743,7 +4793,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>1</v>
       </c>
@@ -4778,7 +4828,7 @@
         <v>0.878</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>1</v>
       </c>
@@ -4813,7 +4863,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>1</v>
       </c>
@@ -4849,42 +4899,42 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="2">
-        <v>0</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
+      <c r="A46" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="11">
+        <v>0</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="11">
         <v>850</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="11">
         <v>934.96</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="11">
         <v>54</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="11">
         <v>1514</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="11">
         <v>0.4078</v>
       </c>
-      <c r="J46" s="3">
-        <v>1</v>
-      </c>
-      <c r="K46" s="2">
+      <c r="J46" s="12">
+        <v>1</v>
+      </c>
+      <c r="K46" s="11">
         <v>3.27</v>
       </c>
-      <c r="L46" s="2">
+      <c r="L46" s="11">
         <v>1.21</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>1</v>
       </c>
@@ -4919,7 +4969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>1</v>
       </c>
@@ -4954,7 +5004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>1</v>
       </c>
@@ -4989,7 +5039,7 @@
         <v>1.0629999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>1</v>
       </c>
@@ -5024,7 +5074,7 @@
         <v>1.0609999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>1</v>
       </c>
@@ -5059,7 +5109,7 @@
         <v>1.7110000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>1</v>
       </c>
@@ -5094,7 +5144,7 @@
         <v>1.492</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>1</v>
       </c>
@@ -5129,7 +5179,7 @@
         <v>1.6990000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>1</v>
       </c>
@@ -5164,7 +5214,7 @@
         <v>1.2130000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>1</v>
       </c>
@@ -5199,7 +5249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>1</v>
       </c>
@@ -5235,42 +5285,42 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B57" s="2">
-        <v>0</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2" t="s">
+      <c r="A57" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" s="11">
+        <v>0</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="11">
         <v>851</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="11">
         <v>934.87</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="11">
         <v>54</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57" s="11">
         <v>1514</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I57" s="11">
         <v>0.33100000000000002</v>
       </c>
-      <c r="J57" s="3">
-        <v>1</v>
-      </c>
-      <c r="K57" s="2">
+      <c r="J57" s="12">
+        <v>1</v>
+      </c>
+      <c r="K57" s="11">
         <v>3.93</v>
       </c>
-      <c r="L57" s="2">
+      <c r="L57" s="11">
         <v>0.187</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>1</v>
       </c>
@@ -5305,7 +5355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>1</v>
       </c>
@@ -5340,7 +5390,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>1</v>
       </c>
@@ -5375,7 +5425,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>1</v>
       </c>
@@ -5410,7 +5460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>1</v>
       </c>
@@ -5445,7 +5495,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>1</v>
       </c>
@@ -5480,7 +5530,7 @@
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>1</v>
       </c>
@@ -5515,7 +5565,7 @@
         <v>0.58099999999999996</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>1</v>
       </c>
@@ -5550,7 +5600,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>1</v>
       </c>
@@ -5585,7 +5635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>1</v>
       </c>
@@ -5621,42 +5671,42 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B68" s="2">
-        <v>0</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2" t="s">
+      <c r="A68" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" s="11">
+        <v>0</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="11">
         <v>816</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="11">
         <v>963.41</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68" s="11">
         <v>54</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H68" s="11">
         <v>1514</v>
       </c>
-      <c r="I68" s="2">
+      <c r="I68" s="11">
         <v>1.1059000000000001</v>
       </c>
-      <c r="J68" s="3">
-        <v>1</v>
-      </c>
-      <c r="K68" s="2">
+      <c r="J68" s="12">
+        <v>1</v>
+      </c>
+      <c r="K68" s="11">
         <v>5.19</v>
       </c>
-      <c r="L68" s="2">
+      <c r="L68" s="11">
         <v>1.6779999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>1</v>
       </c>
@@ -5691,7 +5741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>1</v>
       </c>
@@ -5726,7 +5776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>1</v>
       </c>
@@ -5761,7 +5811,7 @@
         <v>1.679</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>1</v>
       </c>
@@ -5796,7 +5846,7 @@
         <v>1.526</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>1</v>
       </c>
@@ -5831,7 +5881,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>1</v>
       </c>
@@ -5866,7 +5916,7 @@
         <v>1.9019999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>1</v>
       </c>
@@ -5901,7 +5951,7 @@
         <v>1.893</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>1</v>
       </c>
@@ -5936,7 +5986,7 @@
         <v>1.6779999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>1</v>
       </c>
@@ -5971,7 +6021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>1</v>
       </c>
@@ -6007,42 +6057,42 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B79" s="2">
-        <v>0</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2" t="s">
+      <c r="A79" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" s="11">
+        <v>0</v>
+      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="11">
         <v>846</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="11">
         <v>940.66</v>
       </c>
-      <c r="G79" s="2">
+      <c r="G79" s="11">
         <v>54</v>
       </c>
-      <c r="H79" s="2">
+      <c r="H79" s="11">
         <v>1514</v>
       </c>
-      <c r="I79" s="2">
+      <c r="I79" s="11">
         <v>0.94310000000000005</v>
       </c>
-      <c r="J79" s="3">
-        <v>1</v>
-      </c>
-      <c r="K79" s="2">
+      <c r="J79" s="12">
+        <v>1</v>
+      </c>
+      <c r="K79" s="11">
         <v>5.0199999999999996</v>
       </c>
-      <c r="L79" s="2">
+      <c r="L79" s="11">
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>1</v>
       </c>
@@ -6077,7 +6127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>1</v>
       </c>
@@ -6112,7 +6162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>1</v>
       </c>
@@ -6147,7 +6197,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>1</v>
       </c>
@@ -6182,7 +6232,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>1</v>
       </c>
@@ -6217,7 +6267,7 @@
         <v>0.746</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>1</v>
       </c>
@@ -6252,7 +6302,7 @@
         <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>1</v>
       </c>
@@ -6287,7 +6337,7 @@
         <v>0.73299999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>1</v>
       </c>
@@ -6322,7 +6372,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>1</v>
       </c>
@@ -6357,7 +6407,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>1</v>
       </c>
@@ -6393,42 +6443,42 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B90" s="2">
-        <v>0</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2" t="s">
+      <c r="A90" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B90" s="11">
+        <v>0</v>
+      </c>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="11">
         <v>829</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90" s="11">
         <v>952.57</v>
       </c>
-      <c r="G90" s="2">
+      <c r="G90" s="11">
         <v>46</v>
       </c>
-      <c r="H90" s="2">
+      <c r="H90" s="11">
         <v>1514</v>
       </c>
-      <c r="I90" s="2">
+      <c r="I90" s="11">
         <v>0.95250000000000001</v>
       </c>
-      <c r="J90" s="3">
-        <v>1</v>
-      </c>
-      <c r="K90" s="2">
+      <c r="J90" s="12">
+        <v>1</v>
+      </c>
+      <c r="K90" s="11">
         <v>4.71</v>
       </c>
-      <c r="L90" s="2">
+      <c r="L90" s="11">
         <v>1.357</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>1</v>
       </c>
@@ -6463,7 +6513,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>1</v>
       </c>
@@ -6498,7 +6548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>1</v>
       </c>
@@ -6533,7 +6583,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>1</v>
       </c>
@@ -6568,7 +6618,7 @@
         <v>1.212</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>1</v>
       </c>
@@ -6603,7 +6653,7 @@
         <v>1.847</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>1</v>
       </c>
@@ -6638,7 +6688,7 @@
         <v>1.2829999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>1</v>
       </c>
@@ -6673,7 +6723,7 @@
         <v>1.8320000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>1</v>
       </c>
@@ -6708,7 +6758,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>1</v>
       </c>
@@ -6743,7 +6793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>1</v>
       </c>
@@ -6779,42 +6829,42 @@
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B101" s="2">
-        <v>0</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2" t="s">
+      <c r="A101" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B101" s="11">
+        <v>0</v>
+      </c>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="11">
         <v>779</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101" s="11">
         <v>1005.23</v>
       </c>
-      <c r="G101" s="2">
+      <c r="G101" s="11">
         <v>54</v>
       </c>
-      <c r="H101" s="2">
+      <c r="H101" s="11">
         <v>1514</v>
       </c>
-      <c r="I101" s="2">
+      <c r="I101" s="11">
         <v>0.56189999999999996</v>
       </c>
-      <c r="J101" s="3">
-        <v>1</v>
-      </c>
-      <c r="K101" s="2">
+      <c r="J101" s="12">
+        <v>1</v>
+      </c>
+      <c r="K101" s="11">
         <v>5.04</v>
       </c>
-      <c r="L101" s="2">
+      <c r="L101" s="11">
         <v>1.76</v>
       </c>
     </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>1</v>
       </c>
@@ -6849,7 +6899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>1</v>
       </c>
@@ -6884,7 +6934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>1</v>
       </c>
@@ -6919,7 +6969,7 @@
         <v>1.7609999999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>1</v>
       </c>
@@ -6954,7 +7004,7 @@
         <v>1.615</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>1</v>
       </c>
@@ -6989,7 +7039,7 @@
         <v>1.6519999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>1</v>
       </c>
@@ -7024,7 +7074,7 @@
         <v>1.9770000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>1</v>
       </c>
@@ -7059,7 +7109,7 @@
         <v>2.1880000000000002</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>1</v>
       </c>
@@ -7094,7 +7144,7 @@
         <v>1.7609999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>1</v>
       </c>
@@ -7129,7 +7179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>1</v>
       </c>
@@ -7165,42 +7215,42 @@
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B112" s="4">
-        <v>0</v>
-      </c>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4" t="s">
+      <c r="A112" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B112" s="2">
+        <v>0</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E112" s="4">
+      <c r="E112" s="2">
         <v>551</v>
       </c>
-      <c r="F112" s="4">
+      <c r="F112" s="2">
         <v>1341.11</v>
       </c>
-      <c r="G112" s="4">
+      <c r="G112" s="2">
         <v>56</v>
       </c>
-      <c r="H112" s="4">
+      <c r="H112" s="2">
         <v>26568</v>
       </c>
-      <c r="I112" s="4">
+      <c r="I112" s="2">
         <v>0.1542</v>
       </c>
-      <c r="J112" s="5">
-        <v>1</v>
-      </c>
-      <c r="K112" s="4">
+      <c r="J112" s="3">
+        <v>1</v>
+      </c>
+      <c r="K112" s="2">
         <v>1.43</v>
       </c>
-      <c r="L112" s="4">
+      <c r="L112" s="2">
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>1</v>
       </c>
@@ -7235,7 +7285,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>1</v>
       </c>
@@ -7270,7 +7320,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>1</v>
       </c>
@@ -7305,7 +7355,7 @@
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>1</v>
       </c>
@@ -7340,7 +7390,7 @@
         <v>2.8820000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>1</v>
       </c>
@@ -7375,7 +7425,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>1</v>
       </c>
@@ -7410,7 +7460,7 @@
         <v>1.5069999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>1</v>
       </c>
@@ -7445,7 +7495,7 @@
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>1</v>
       </c>
@@ -7480,7 +7530,7 @@
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>1</v>
       </c>
@@ -7515,7 +7565,7 @@
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>1</v>
       </c>
@@ -7551,42 +7601,42 @@
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B123" s="4">
-        <v>0</v>
-      </c>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4" t="s">
+      <c r="A123" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B123" s="2">
+        <v>0</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E123" s="4">
+      <c r="E123" s="2">
         <v>331</v>
       </c>
-      <c r="F123" s="4">
+      <c r="F123" s="2">
         <v>541.69000000000005</v>
       </c>
-      <c r="G123" s="4">
+      <c r="G123" s="2">
         <v>56</v>
       </c>
-      <c r="H123" s="4">
+      <c r="H123" s="2">
         <v>10081</v>
       </c>
-      <c r="I123" s="4">
+      <c r="I123" s="2">
         <v>0.1123</v>
       </c>
-      <c r="J123" s="5">
-        <v>1</v>
-      </c>
-      <c r="K123" s="4">
+      <c r="J123" s="3">
+        <v>1</v>
+      </c>
+      <c r="K123" s="2">
         <v>0.46</v>
       </c>
-      <c r="L123" s="4">
+      <c r="L123" s="2">
         <v>1.95</v>
       </c>
     </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>1</v>
       </c>
@@ -7621,7 +7671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>1</v>
       </c>
@@ -7656,7 +7706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>1</v>
       </c>
@@ -7691,7 +7741,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>1</v>
       </c>
@@ -7726,7 +7776,7 @@
         <v>4.3879999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>1</v>
       </c>
@@ -7761,7 +7811,7 @@
         <v>4.4409999999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>1</v>
       </c>
@@ -7796,7 +7846,7 @@
         <v>2.2570000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>1</v>
       </c>
@@ -7831,7 +7881,7 @@
         <v>2.2120000000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>1</v>
       </c>
@@ -7866,7 +7916,7 @@
         <v>2.0379999999999998</v>
       </c>
     </row>
-    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>1</v>
       </c>
@@ -7901,7 +7951,7 @@
         <v>1.9930000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>1</v>
       </c>
@@ -7937,42 +7987,42 @@
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B134" s="4">
-        <v>0</v>
-      </c>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4" t="s">
+      <c r="A134" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B134" s="2">
+        <v>0</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E134" s="4">
+      <c r="E134" s="2">
         <v>451</v>
       </c>
-      <c r="F134" s="4">
+      <c r="F134" s="2">
         <v>1569.45</v>
       </c>
-      <c r="G134" s="4">
+      <c r="G134" s="2">
         <v>56</v>
       </c>
-      <c r="H134" s="4">
+      <c r="H134" s="2">
         <v>44076</v>
       </c>
-      <c r="I134" s="4">
+      <c r="I134" s="2">
         <v>0.17419999999999999</v>
       </c>
-      <c r="J134" s="5">
-        <v>1</v>
-      </c>
-      <c r="K134" s="4">
+      <c r="J134" s="3">
+        <v>1</v>
+      </c>
+      <c r="K134" s="2">
         <v>1.1599999999999999</v>
       </c>
-      <c r="L134" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L134" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>1</v>
       </c>
@@ -8007,7 +8057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>1</v>
       </c>
@@ -8042,7 +8092,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>1</v>
       </c>
@@ -8077,7 +8127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>1</v>
       </c>
@@ -8112,7 +8162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>1</v>
       </c>
@@ -8147,7 +8197,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>1</v>
       </c>
@@ -8182,7 +8232,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>1</v>
       </c>
@@ -8217,7 +8267,7 @@
         <v>0.56699999999999995</v>
       </c>
     </row>
-    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>1</v>
       </c>
@@ -8252,7 +8302,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>1</v>
       </c>
@@ -8287,7 +8337,7 @@
         <v>0.28399999999999997</v>
       </c>
     </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>1</v>
       </c>
@@ -8323,42 +8373,42 @@
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B145" s="4">
-        <v>0</v>
-      </c>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4" t="s">
+      <c r="A145" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B145" s="2">
+        <v>0</v>
+      </c>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E145" s="4">
+      <c r="E145" s="2">
         <v>395</v>
       </c>
-      <c r="F145" s="4">
+      <c r="F145" s="2">
         <v>1793.4</v>
       </c>
-      <c r="G145" s="4">
+      <c r="G145" s="2">
         <v>56</v>
       </c>
-      <c r="H145" s="4">
+      <c r="H145" s="2">
         <v>39816</v>
       </c>
-      <c r="I145" s="4">
+      <c r="I145" s="2">
         <v>9.2600000000000002E-2</v>
       </c>
-      <c r="J145" s="5">
-        <v>1</v>
-      </c>
-      <c r="K145" s="4">
+      <c r="J145" s="3">
+        <v>1</v>
+      </c>
+      <c r="K145" s="2">
         <v>1.1299999999999999</v>
       </c>
-      <c r="L145" s="4">
+      <c r="L145" s="2">
         <v>2.0720000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>1</v>
       </c>
@@ -8393,7 +8443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>1</v>
       </c>
@@ -8428,7 +8478,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>1</v>
       </c>
@@ -8463,7 +8513,7 @@
         <v>2.0720000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>1</v>
       </c>
@@ -8498,7 +8548,7 @@
         <v>3.8849999999999998</v>
       </c>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>1</v>
       </c>
@@ -8533,7 +8583,7 @@
         <v>2.0190000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>1</v>
       </c>
@@ -8568,7 +8618,7 @@
         <v>2.0139999999999998</v>
       </c>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>1</v>
       </c>
@@ -8603,7 +8653,7 @@
         <v>2.9340000000000002</v>
       </c>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>1</v>
       </c>
@@ -8638,7 +8688,7 @@
         <v>1.9490000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>1</v>
       </c>
@@ -8673,7 +8723,7 @@
         <v>2.077</v>
       </c>
     </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>1</v>
       </c>
@@ -8709,42 +8759,42 @@
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B156" s="4">
-        <v>0</v>
-      </c>
-      <c r="C156" s="4"/>
-      <c r="D156" s="4" t="s">
+      <c r="A156" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B156" s="2">
+        <v>0</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E156" s="4">
+      <c r="E156" s="2">
         <v>479</v>
       </c>
-      <c r="F156" s="4">
+      <c r="F156" s="2">
         <v>1505.87</v>
       </c>
-      <c r="G156" s="4">
+      <c r="G156" s="2">
         <v>56</v>
       </c>
-      <c r="H156" s="4">
+      <c r="H156" s="2">
         <v>25616</v>
       </c>
-      <c r="I156" s="4">
+      <c r="I156" s="2">
         <v>0.18659999999999999</v>
       </c>
-      <c r="J156" s="5">
-        <v>1</v>
-      </c>
-      <c r="K156" s="4">
+      <c r="J156" s="3">
+        <v>1</v>
+      </c>
+      <c r="K156" s="2">
         <v>1.08</v>
       </c>
-      <c r="L156" s="4">
+      <c r="L156" s="2">
         <v>0.29499999999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B157">
         <v>1</v>
       </c>
@@ -8779,7 +8829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>1</v>
       </c>
@@ -8814,7 +8864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>1</v>
       </c>
@@ -8849,7 +8899,7 @@
         <v>0.29499999999999998</v>
       </c>
     </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>1</v>
       </c>
@@ -8884,7 +8934,7 @@
         <v>2.2679999999999998</v>
       </c>
     </row>
-    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>1</v>
       </c>
@@ -8919,7 +8969,7 @@
         <v>2.2879999999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>1</v>
       </c>
@@ -8954,7 +9004,7 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>1</v>
       </c>
@@ -8989,7 +9039,7 @@
         <v>0.57799999999999996</v>
       </c>
     </row>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B164">
         <v>1</v>
       </c>
@@ -9024,7 +9074,7 @@
         <v>0.30299999999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B165">
         <v>1</v>
       </c>
@@ -9059,7 +9109,7 @@
         <v>0.29899999999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>1</v>
       </c>
@@ -9095,42 +9145,42 @@
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B167" s="4">
-        <v>0</v>
-      </c>
-      <c r="C167" s="4"/>
-      <c r="D167" s="4" t="s">
+      <c r="A167" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B167" s="2">
+        <v>0</v>
+      </c>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E167" s="4">
+      <c r="E167" s="2">
         <v>376</v>
       </c>
-      <c r="F167" s="4">
+      <c r="F167" s="2">
         <v>1870.47</v>
       </c>
-      <c r="G167" s="4">
+      <c r="G167" s="2">
         <v>56</v>
       </c>
-      <c r="H167" s="4">
+      <c r="H167" s="2">
         <v>55536</v>
       </c>
-      <c r="I167" s="4">
+      <c r="I167" s="2">
         <v>0.15559999999999999</v>
       </c>
-      <c r="J167" s="5">
-        <v>1</v>
-      </c>
-      <c r="K167" s="4">
+      <c r="J167" s="3">
+        <v>1</v>
+      </c>
+      <c r="K167" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="L167" s="4">
+      <c r="L167" s="2">
         <v>0.218</v>
       </c>
     </row>
-    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B168">
         <v>1</v>
       </c>
@@ -9165,7 +9215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B169">
         <v>1</v>
       </c>
@@ -9200,7 +9250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B170">
         <v>1</v>
       </c>
@@ -9235,7 +9285,7 @@
         <v>0.218</v>
       </c>
     </row>
-    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B171">
         <v>1</v>
       </c>
@@ -9270,7 +9320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B172">
         <v>1</v>
       </c>
@@ -9305,7 +9355,7 @@
         <v>1.0149999999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B173">
         <v>1</v>
       </c>
@@ -9340,7 +9390,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B174">
         <v>1</v>
       </c>
@@ -9375,7 +9425,7 @@
         <v>1.0089999999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B175">
         <v>1</v>
       </c>
@@ -9410,7 +9460,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B176">
         <v>1</v>
       </c>
@@ -9445,7 +9495,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B177">
         <v>1</v>
       </c>
@@ -9481,42 +9531,42 @@
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B178" s="4">
-        <v>0</v>
-      </c>
-      <c r="C178" s="4"/>
-      <c r="D178" s="4" t="s">
+      <c r="A178" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B178" s="2">
+        <v>0</v>
+      </c>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E178" s="4">
+      <c r="E178" s="2">
         <v>344</v>
       </c>
-      <c r="F178" s="4">
+      <c r="F178" s="2">
         <v>2037.13</v>
       </c>
-      <c r="G178" s="4">
+      <c r="G178" s="2">
         <v>56</v>
       </c>
-      <c r="H178" s="4">
+      <c r="H178" s="2">
         <v>42396</v>
       </c>
-      <c r="I178" s="4">
+      <c r="I178" s="2">
         <v>0.1381</v>
       </c>
-      <c r="J178" s="5">
-        <v>1</v>
-      </c>
-      <c r="K178" s="4">
+      <c r="J178" s="3">
+        <v>1</v>
+      </c>
+      <c r="K178" s="2">
         <v>0.98</v>
       </c>
-      <c r="L178" s="4">
+      <c r="L178" s="2">
         <v>0.182</v>
       </c>
     </row>
-    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B179">
         <v>1</v>
       </c>
@@ -9551,7 +9601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B180">
         <v>1</v>
       </c>
@@ -9586,7 +9636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B181">
         <v>1</v>
       </c>
@@ -9621,7 +9671,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B182">
         <v>1</v>
       </c>
@@ -9656,7 +9706,7 @@
         <v>2.1120000000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B183">
         <v>1</v>
       </c>
@@ -9691,7 +9741,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B184">
         <v>1</v>
       </c>
@@ -9726,7 +9776,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B185">
         <v>1</v>
       </c>
@@ -9761,7 +9811,7 @@
         <v>1.145</v>
       </c>
     </row>
-    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B186">
         <v>1</v>
       </c>
@@ -9796,7 +9846,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B187">
         <v>1</v>
       </c>
@@ -9831,7 +9881,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B188">
         <v>1</v>
       </c>
@@ -9867,42 +9917,42 @@
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B189" s="4">
-        <v>0</v>
-      </c>
-      <c r="C189" s="4"/>
-      <c r="D189" s="4" t="s">
+      <c r="A189" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B189" s="2">
+        <v>0</v>
+      </c>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E189" s="4">
+      <c r="E189" s="2">
         <v>469</v>
       </c>
-      <c r="F189" s="4">
+      <c r="F189" s="2">
         <v>1525.38</v>
       </c>
-      <c r="G189" s="4">
+      <c r="G189" s="2">
         <v>56</v>
       </c>
-      <c r="H189" s="4">
+      <c r="H189" s="2">
         <v>52596</v>
       </c>
-      <c r="I189" s="4">
+      <c r="I189" s="2">
         <v>0.17349999999999999</v>
       </c>
-      <c r="J189" s="5">
-        <v>1</v>
-      </c>
-      <c r="K189" s="4">
+      <c r="J189" s="3">
+        <v>1</v>
+      </c>
+      <c r="K189" s="2">
         <v>0.93</v>
       </c>
-      <c r="L189" s="4">
+      <c r="L189" s="2">
         <v>0.34200000000000003</v>
       </c>
     </row>
-    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B190">
         <v>1</v>
       </c>
@@ -9937,7 +9987,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B191">
         <v>1</v>
       </c>
@@ -9972,7 +10022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B192">
         <v>1</v>
       </c>
@@ -10007,7 +10057,7 @@
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B193">
         <v>1</v>
       </c>
@@ -10042,7 +10092,7 @@
         <v>2.4449999999999998</v>
       </c>
     </row>
-    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B194">
         <v>1</v>
       </c>
@@ -10077,7 +10127,7 @@
         <v>0.25900000000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B195">
         <v>1</v>
       </c>
@@ -10112,7 +10162,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B196">
         <v>1</v>
       </c>
@@ -10147,7 +10197,7 @@
         <v>0.60399999999999998</v>
       </c>
     </row>
-    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B197">
         <v>1</v>
       </c>
@@ -10182,7 +10232,7 @@
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B198">
         <v>1</v>
       </c>
@@ -10217,7 +10267,7 @@
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B199">
         <v>1</v>
       </c>
@@ -10253,42 +10303,42 @@
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A200" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B200" s="4">
-        <v>0</v>
-      </c>
-      <c r="C200" s="4"/>
-      <c r="D200" s="4" t="s">
+      <c r="A200" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B200" s="2">
+        <v>0</v>
+      </c>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E200" s="4">
+      <c r="E200" s="2">
         <v>377</v>
       </c>
-      <c r="F200" s="4">
+      <c r="F200" s="2">
         <v>1866.15</v>
       </c>
-      <c r="G200" s="4">
+      <c r="G200" s="2">
         <v>56</v>
       </c>
-      <c r="H200" s="4">
+      <c r="H200" s="2">
         <v>58276</v>
       </c>
-      <c r="I200" s="4">
+      <c r="I200" s="2">
         <v>0.14960000000000001</v>
       </c>
-      <c r="J200" s="5">
-        <v>1</v>
-      </c>
-      <c r="K200" s="4">
+      <c r="J200" s="3">
+        <v>1</v>
+      </c>
+      <c r="K200" s="2">
         <v>1.18</v>
       </c>
-      <c r="L200" s="4">
+      <c r="L200" s="2">
         <v>0.216</v>
       </c>
     </row>
-    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B201">
         <v>1</v>
       </c>
@@ -10323,7 +10373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B202">
         <v>1</v>
       </c>
@@ -10358,7 +10408,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B203">
         <v>1</v>
       </c>
@@ -10393,7 +10443,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B204">
         <v>1</v>
       </c>
@@ -10428,7 +10478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B205">
         <v>1</v>
       </c>
@@ -10463,7 +10513,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B206">
         <v>1</v>
       </c>
@@ -10498,7 +10548,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B207">
         <v>1</v>
       </c>
@@ -10533,7 +10583,7 @@
         <v>1.0549999999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B208">
         <v>1</v>
       </c>
@@ -10568,7 +10618,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B209">
         <v>1</v>
       </c>
@@ -10603,7 +10653,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B210">
         <v>1</v>
       </c>
@@ -10639,42 +10689,42 @@
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A211" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B211" s="4">
-        <v>0</v>
-      </c>
-      <c r="C211" s="4"/>
-      <c r="D211" s="4" t="s">
+      <c r="A211" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B211" s="2">
+        <v>0</v>
+      </c>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E211" s="4">
+      <c r="E211" s="2">
         <v>352</v>
       </c>
-      <c r="F211" s="4">
+      <c r="F211" s="2">
         <v>1994.16</v>
       </c>
-      <c r="G211" s="4">
+      <c r="G211" s="2">
         <v>56</v>
       </c>
-      <c r="H211" s="4">
+      <c r="H211" s="2">
         <v>35556</v>
       </c>
-      <c r="I211" s="4">
+      <c r="I211" s="2">
         <v>0.14419999999999999</v>
       </c>
-      <c r="J211" s="5">
-        <v>1</v>
-      </c>
-      <c r="K211" s="4">
+      <c r="J211" s="3">
+        <v>1</v>
+      </c>
+      <c r="K211" s="2">
         <v>0.92</v>
       </c>
-      <c r="L211" s="4">
+      <c r="L211" s="2">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B212">
         <v>1</v>
       </c>
@@ -10709,7 +10759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B213">
         <v>1</v>
       </c>
@@ -10744,7 +10794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B214">
         <v>1</v>
       </c>
@@ -10779,7 +10829,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B215">
         <v>1</v>
       </c>
@@ -10814,7 +10864,7 @@
         <v>1.9530000000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B216">
         <v>1</v>
       </c>
@@ -10849,7 +10899,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B217">
         <v>1</v>
       </c>
@@ -10884,7 +10934,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B218">
         <v>1</v>
       </c>
@@ -10919,7 +10969,7 @@
         <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B219">
         <v>1</v>
       </c>
@@ -10954,7 +11004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B220">
         <v>1</v>
       </c>
@@ -10989,7 +11039,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B221">
         <v>1</v>
       </c>
@@ -11025,42 +11075,42 @@
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A222" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B222" s="6">
-        <v>0</v>
-      </c>
-      <c r="C222" s="6"/>
-      <c r="D222" s="6" t="s">
+      <c r="A222" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B222" s="4">
+        <v>0</v>
+      </c>
+      <c r="C222" s="4"/>
+      <c r="D222" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E222" s="6">
+      <c r="E222" s="4">
         <v>595</v>
       </c>
-      <c r="F222" s="6">
+      <c r="F222" s="4">
         <v>1477.01</v>
       </c>
-      <c r="G222" s="6">
+      <c r="G222" s="4">
         <v>56</v>
       </c>
-      <c r="H222" s="6">
+      <c r="H222" s="4">
         <v>16116</v>
       </c>
-      <c r="I222" s="6">
+      <c r="I222" s="4">
         <v>7.5499999999999998E-2</v>
       </c>
-      <c r="J222" s="7">
-        <v>1</v>
-      </c>
-      <c r="K222" s="6">
+      <c r="J222" s="5">
+        <v>1</v>
+      </c>
+      <c r="K222" s="4">
         <v>0.62</v>
       </c>
-      <c r="L222" s="6">
+      <c r="L222" s="4">
         <v>3.754</v>
       </c>
     </row>
-    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B223">
         <v>1</v>
       </c>
@@ -11095,7 +11145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B224">
         <v>1</v>
       </c>
@@ -11130,7 +11180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B225">
         <v>1</v>
       </c>
@@ -11165,7 +11215,7 @@
         <v>3.754</v>
       </c>
     </row>
-    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B226">
         <v>1</v>
       </c>
@@ -11200,7 +11250,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B227">
         <v>1</v>
       </c>
@@ -11235,7 +11285,7 @@
         <v>1.8140000000000001</v>
       </c>
     </row>
-    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B228">
         <v>1</v>
       </c>
@@ -11270,7 +11320,7 @@
         <v>2.1339999999999999</v>
       </c>
     </row>
-    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B229">
         <v>1</v>
       </c>
@@ -11305,7 +11355,7 @@
         <v>1.8069999999999999</v>
       </c>
     </row>
-    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B230">
         <v>1</v>
       </c>
@@ -11340,7 +11390,7 @@
         <v>3.8069999999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B231">
         <v>1</v>
       </c>
@@ -11375,7 +11425,7 @@
         <v>3.7170000000000001</v>
       </c>
     </row>
-    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B232">
         <v>1</v>
       </c>
@@ -11411,42 +11461,42 @@
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A233" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B233" s="6">
-        <v>0</v>
-      </c>
-      <c r="C233" s="6"/>
-      <c r="D233" s="6" t="s">
+      <c r="A233" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B233" s="4">
+        <v>0</v>
+      </c>
+      <c r="C233" s="4"/>
+      <c r="D233" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E233" s="6">
+      <c r="E233" s="4">
         <v>664</v>
       </c>
-      <c r="F233" s="6">
+      <c r="F233" s="4">
         <v>1345.92</v>
       </c>
-      <c r="G233" s="6">
+      <c r="G233" s="4">
         <v>56</v>
       </c>
-      <c r="H233" s="6">
+      <c r="H233" s="4">
         <v>11736</v>
       </c>
-      <c r="I233" s="6">
+      <c r="I233" s="4">
         <v>9.2399999999999996E-2</v>
       </c>
-      <c r="J233" s="7">
-        <v>1</v>
-      </c>
-      <c r="K233" s="6">
+      <c r="J233" s="5">
+        <v>1</v>
+      </c>
+      <c r="K233" s="4">
         <v>0.56999999999999995</v>
       </c>
-      <c r="L233" s="6">
+      <c r="L233" s="4">
         <v>4.2290000000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B234">
         <v>1</v>
       </c>
@@ -11481,7 +11531,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B235">
         <v>1</v>
       </c>
@@ -11516,7 +11566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B236">
         <v>1</v>
       </c>
@@ -11551,7 +11601,7 @@
         <v>4.2290000000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B237">
         <v>1</v>
       </c>
@@ -11586,7 +11636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B238">
         <v>1</v>
       </c>
@@ -11621,7 +11671,7 @@
         <v>1.333</v>
       </c>
     </row>
-    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B239">
         <v>1</v>
       </c>
@@ -11656,7 +11706,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B240">
         <v>1</v>
       </c>
@@ -11691,7 +11741,7 @@
         <v>1.327</v>
       </c>
     </row>
-    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B241">
         <v>1</v>
       </c>
@@ -11726,7 +11776,7 @@
         <v>4.2290000000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B242">
         <v>1</v>
       </c>
@@ -11761,7 +11811,7 @@
         <v>4.2960000000000003</v>
       </c>
     </row>
-    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B243">
         <v>1</v>
       </c>
@@ -11797,42 +11847,42 @@
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A244" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B244" s="6">
-        <v>0</v>
-      </c>
-      <c r="C244" s="6"/>
-      <c r="D244" s="6" t="s">
+      <c r="A244" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B244" s="4">
+        <v>0</v>
+      </c>
+      <c r="C244" s="4"/>
+      <c r="D244" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E244" s="6">
+      <c r="E244" s="4">
         <v>705</v>
       </c>
-      <c r="F244" s="6">
+      <c r="F244" s="4">
         <v>1248.47</v>
       </c>
-      <c r="G244" s="6">
+      <c r="G244" s="4">
         <v>56</v>
       </c>
-      <c r="H244" s="6">
+      <c r="H244" s="4">
         <v>8816</v>
       </c>
-      <c r="I244" s="6">
+      <c r="I244" s="4">
         <v>7.8399999999999997E-2</v>
       </c>
-      <c r="J244" s="7">
-        <v>1</v>
-      </c>
-      <c r="K244" s="6">
+      <c r="J244" s="5">
+        <v>1</v>
+      </c>
+      <c r="K244" s="4">
         <v>0.35</v>
       </c>
-      <c r="L244" s="6">
+      <c r="L244" s="4">
         <v>5.1559999999999997</v>
       </c>
     </row>
-    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B245">
         <v>1</v>
       </c>
@@ -11867,7 +11917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B246">
         <v>1</v>
       </c>
@@ -11902,7 +11952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B247">
         <v>1</v>
       </c>
@@ -11937,7 +11987,7 @@
         <v>5.1559999999999997</v>
       </c>
     </row>
-    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B248">
         <v>1</v>
       </c>
@@ -11972,7 +12022,7 @@
         <v>6.6509999999999998</v>
       </c>
     </row>
-    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B249">
         <v>1</v>
       </c>
@@ -12007,7 +12057,7 @@
         <v>2.2770000000000001</v>
       </c>
     </row>
-    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B250">
         <v>1</v>
       </c>
@@ -12042,7 +12092,7 @@
         <v>4.6859999999999999</v>
       </c>
     </row>
-    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B251">
         <v>1</v>
       </c>
@@ -12077,7 +12127,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B252">
         <v>1</v>
       </c>
@@ -12112,7 +12162,7 @@
         <v>5.1719999999999997</v>
       </c>
     </row>
-    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B253">
         <v>1</v>
       </c>
@@ -12147,7 +12197,7 @@
         <v>5.0730000000000004</v>
       </c>
     </row>
-    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B254">
         <v>1</v>
       </c>
@@ -12183,42 +12233,42 @@
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A255" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B255" s="6">
-        <v>0</v>
-      </c>
-      <c r="C255" s="6"/>
-      <c r="D255" s="6" t="s">
+      <c r="A255" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B255" s="4">
+        <v>0</v>
+      </c>
+      <c r="C255" s="4"/>
+      <c r="D255" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E255" s="6">
+      <c r="E255" s="4">
         <v>649</v>
       </c>
-      <c r="F255" s="6">
+      <c r="F255" s="4">
         <v>1330.59</v>
       </c>
-      <c r="G255" s="6">
+      <c r="G255" s="4">
         <v>56</v>
       </c>
-      <c r="H255" s="6">
+      <c r="H255" s="4">
         <v>11416</v>
       </c>
-      <c r="I255" s="6">
+      <c r="I255" s="4">
         <v>8.0100000000000005E-2</v>
       </c>
-      <c r="J255" s="7">
-        <v>1</v>
-      </c>
-      <c r="K255" s="6">
+      <c r="J255" s="5">
+        <v>1</v>
+      </c>
+      <c r="K255" s="4">
         <v>0.44</v>
       </c>
-      <c r="L255" s="6">
+      <c r="L255" s="4">
         <v>5.9969999999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B256">
         <v>1</v>
       </c>
@@ -12253,7 +12303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B257">
         <v>1</v>
       </c>
@@ -12288,7 +12338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B258">
         <v>1</v>
       </c>
@@ -12323,7 +12373,7 @@
         <v>5.9969999999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B259">
         <v>1</v>
       </c>
@@ -12358,7 +12408,7 @@
         <v>5.702</v>
       </c>
     </row>
-    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B260">
         <v>1</v>
       </c>
@@ -12393,7 +12443,7 @@
         <v>1.7769999999999999</v>
       </c>
     </row>
-    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B261">
         <v>1</v>
       </c>
@@ -12428,7 +12478,7 @@
         <v>4.3959999999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B262">
         <v>1</v>
       </c>
@@ -12463,7 +12513,7 @@
         <v>3.7090000000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B263">
         <v>1</v>
       </c>
@@ -12498,7 +12548,7 @@
         <v>5.5049999999999999</v>
       </c>
     </row>
-    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B264">
         <v>1</v>
       </c>
@@ -12533,7 +12583,7 @@
         <v>4.4379999999999997</v>
       </c>
     </row>
-    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B265">
         <v>1</v>
       </c>
@@ -12569,42 +12619,42 @@
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A266" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B266" s="6">
-        <v>0</v>
-      </c>
-      <c r="C266" s="6"/>
-      <c r="D266" s="6" t="s">
+      <c r="A266" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B266" s="4">
+        <v>0</v>
+      </c>
+      <c r="C266" s="4"/>
+      <c r="D266" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E266" s="6">
+      <c r="E266" s="4">
         <v>674</v>
       </c>
-      <c r="F266" s="6">
+      <c r="F266" s="4">
         <v>1338.75</v>
       </c>
-      <c r="G266" s="6">
+      <c r="G266" s="4">
         <v>56</v>
       </c>
-      <c r="H266" s="6">
+      <c r="H266" s="4">
         <v>17576</v>
       </c>
-      <c r="I266" s="6">
+      <c r="I266" s="4">
         <v>8.4699999999999998E-2</v>
       </c>
-      <c r="J266" s="7">
-        <v>1</v>
-      </c>
-      <c r="K266" s="6">
+      <c r="J266" s="5">
+        <v>1</v>
+      </c>
+      <c r="K266" s="4">
         <v>0.54</v>
       </c>
-      <c r="L266" s="6">
+      <c r="L266" s="4">
         <v>2.5009999999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B267">
         <v>1</v>
       </c>
@@ -12639,7 +12689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B268">
         <v>1</v>
       </c>
@@ -12674,7 +12724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B269">
         <v>1</v>
       </c>
@@ -12709,7 +12759,7 @@
         <v>2.5009999999999999</v>
       </c>
     </row>
-    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B270">
         <v>1</v>
       </c>
@@ -12744,7 +12794,7 @@
         <v>4.306</v>
       </c>
     </row>
-    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B271">
         <v>1</v>
       </c>
@@ -12779,7 +12829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B272">
         <v>1</v>
       </c>
@@ -12814,7 +12864,7 @@
         <v>2.363</v>
       </c>
     </row>
-    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B273">
         <v>1</v>
       </c>
@@ -12849,7 +12899,7 @@
         <v>1.774</v>
       </c>
     </row>
-    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B274">
         <v>1</v>
       </c>
@@ -12884,7 +12934,7 @@
         <v>3.7160000000000002</v>
       </c>
     </row>
-    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B275">
         <v>1</v>
       </c>
@@ -12919,7 +12969,7 @@
         <v>3.395</v>
       </c>
     </row>
-    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B276">
         <v>1</v>
       </c>
@@ -12955,42 +13005,42 @@
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A277" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B277" s="6">
-        <v>0</v>
-      </c>
-      <c r="C277" s="6"/>
-      <c r="D277" s="6" t="s">
+      <c r="A277" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B277" s="4">
+        <v>0</v>
+      </c>
+      <c r="C277" s="4"/>
+      <c r="D277" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E277" s="6">
+      <c r="E277" s="4">
         <v>619</v>
       </c>
-      <c r="F277" s="6">
+      <c r="F277" s="4">
         <v>1385.51</v>
       </c>
-      <c r="G277" s="6">
+      <c r="G277" s="4">
         <v>56</v>
       </c>
-      <c r="H277" s="6">
+      <c r="H277" s="4">
         <v>10276</v>
       </c>
-      <c r="I277" s="6">
+      <c r="I277" s="4">
         <v>9.1300000000000006E-2</v>
       </c>
-      <c r="J277" s="7">
-        <v>1</v>
-      </c>
-      <c r="K277" s="6">
+      <c r="J277" s="5">
+        <v>1</v>
+      </c>
+      <c r="K277" s="4">
         <v>0.54</v>
       </c>
-      <c r="L277" s="6">
+      <c r="L277" s="4">
         <v>3.2</v>
       </c>
     </row>
-    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B278">
         <v>1</v>
       </c>
@@ -13025,7 +13075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B279">
         <v>1</v>
       </c>
@@ -13060,7 +13110,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B280">
         <v>1</v>
       </c>
@@ -13095,7 +13145,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B281">
         <v>1</v>
       </c>
@@ -13130,7 +13180,7 @@
         <v>3.8340000000000001</v>
       </c>
     </row>
-    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B282">
         <v>1</v>
       </c>
@@ -13165,7 +13215,7 @@
         <v>2.1360000000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B283">
         <v>1</v>
       </c>
@@ -13200,7 +13250,7 @@
         <v>3.2040000000000002</v>
       </c>
     </row>
-    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B284">
         <v>1</v>
       </c>
@@ -13235,7 +13285,7 @@
         <v>2.4249999999999998</v>
       </c>
     </row>
-    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B285">
         <v>1</v>
       </c>
@@ -13270,7 +13320,7 @@
         <v>3.1760000000000002</v>
       </c>
     </row>
-    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B286">
         <v>1</v>
       </c>
@@ -13305,7 +13355,7 @@
         <v>3.173</v>
       </c>
     </row>
-    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B287">
         <v>1</v>
       </c>
@@ -13341,42 +13391,42 @@
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A288" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B288" s="6">
-        <v>0</v>
-      </c>
-      <c r="C288" s="6"/>
-      <c r="D288" s="6" t="s">
+      <c r="A288" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B288" s="4">
+        <v>0</v>
+      </c>
+      <c r="C288" s="4"/>
+      <c r="D288" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E288" s="6">
+      <c r="E288" s="4">
         <v>680</v>
       </c>
-      <c r="F288" s="6">
+      <c r="F288" s="4">
         <v>1344.19</v>
       </c>
-      <c r="G288" s="6">
+      <c r="G288" s="4">
         <v>56</v>
       </c>
-      <c r="H288" s="6">
+      <c r="H288" s="4">
         <v>8816</v>
       </c>
-      <c r="I288" s="6">
+      <c r="I288" s="4">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="J288" s="7">
-        <v>1</v>
-      </c>
-      <c r="K288" s="6">
+      <c r="J288" s="5">
+        <v>1</v>
+      </c>
+      <c r="K288" s="4">
         <v>0.67</v>
       </c>
-      <c r="L288" s="6">
+      <c r="L288" s="4">
         <v>2.8969999999999998</v>
       </c>
     </row>
-    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B289">
         <v>1</v>
       </c>
@@ -13411,7 +13461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B290">
         <v>1</v>
       </c>
@@ -13446,7 +13496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B291">
         <v>1</v>
       </c>
@@ -13481,7 +13531,7 @@
         <v>2.8969999999999998</v>
       </c>
     </row>
-    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B292">
         <v>1</v>
       </c>
@@ -13516,7 +13566,7 @@
         <v>2.117</v>
       </c>
     </row>
-    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B293">
         <v>1</v>
       </c>
@@ -13551,7 +13601,7 @@
         <v>0.92200000000000004</v>
       </c>
     </row>
-    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B294">
         <v>1</v>
       </c>
@@ -13586,7 +13636,7 @@
         <v>2.9159999999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B295">
         <v>1</v>
       </c>
@@ -13621,7 +13671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B296">
         <v>1</v>
       </c>
@@ -13656,7 +13706,7 @@
         <v>2.859</v>
       </c>
     </row>
-    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B297">
         <v>1</v>
       </c>
@@ -13691,7 +13741,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B298">
         <v>1</v>
       </c>
@@ -13727,42 +13777,42 @@
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A299" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B299" s="6">
-        <v>0</v>
-      </c>
-      <c r="C299" s="6"/>
-      <c r="D299" s="6" t="s">
+      <c r="A299" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B299" s="4">
+        <v>0</v>
+      </c>
+      <c r="C299" s="4"/>
+      <c r="D299" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E299" s="6">
+      <c r="E299" s="4">
         <v>642</v>
       </c>
-      <c r="F299" s="6">
+      <c r="F299" s="4">
         <v>1356.05</v>
       </c>
-      <c r="G299" s="6">
+      <c r="G299" s="4">
         <v>56</v>
       </c>
-      <c r="H299" s="6">
+      <c r="H299" s="4">
         <v>11736</v>
       </c>
-      <c r="I299" s="6">
+      <c r="I299" s="4">
         <v>9.01E-2</v>
       </c>
-      <c r="J299" s="7">
-        <v>1</v>
-      </c>
-      <c r="K299" s="6">
+      <c r="J299" s="5">
+        <v>1</v>
+      </c>
+      <c r="K299" s="4">
         <v>0.95</v>
       </c>
-      <c r="L299" s="6">
+      <c r="L299" s="4">
         <v>3.218</v>
       </c>
     </row>
-    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B300">
         <v>1</v>
       </c>
@@ -13797,7 +13847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B301">
         <v>1</v>
       </c>
@@ -13832,7 +13882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B302">
         <v>1</v>
       </c>
@@ -13867,7 +13917,7 @@
         <v>3.2189999999999999</v>
       </c>
     </row>
-    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B303">
         <v>1</v>
       </c>
@@ -13902,7 +13952,7 @@
         <v>2.5209999999999999</v>
       </c>
     </row>
-    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B304">
         <v>1</v>
       </c>
@@ -13937,7 +13987,7 @@
         <v>4.2709999999999999</v>
       </c>
     </row>
-    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B305">
         <v>1</v>
       </c>
@@ -13972,7 +14022,7 @@
         <v>2.0720000000000001</v>
       </c>
     </row>
-    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B306">
         <v>1</v>
       </c>
@@ -14007,7 +14057,7 @@
         <v>3.2570000000000001</v>
       </c>
     </row>
-    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B307">
         <v>1</v>
       </c>
@@ -14042,7 +14092,7 @@
         <v>3.2240000000000002</v>
       </c>
     </row>
-    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B308">
         <v>1</v>
       </c>
@@ -14077,7 +14127,7 @@
         <v>3.2389999999999999</v>
       </c>
     </row>
-    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B309">
         <v>1</v>
       </c>
@@ -14113,42 +14163,42 @@
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A310" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B310" s="6">
-        <v>0</v>
-      </c>
-      <c r="C310" s="6"/>
-      <c r="D310" s="6" t="s">
+      <c r="A310" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B310" s="4">
+        <v>0</v>
+      </c>
+      <c r="C310" s="4"/>
+      <c r="D310" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E310" s="6">
+      <c r="E310" s="4">
         <v>642</v>
       </c>
-      <c r="F310" s="6">
+      <c r="F310" s="4">
         <v>1340.93</v>
       </c>
-      <c r="G310" s="6">
+      <c r="G310" s="4">
         <v>56</v>
       </c>
-      <c r="H310" s="6">
+      <c r="H310" s="4">
         <v>11736</v>
       </c>
-      <c r="I310" s="6">
+      <c r="I310" s="4">
         <v>9.2200000000000004E-2</v>
       </c>
-      <c r="J310" s="7">
-        <v>1</v>
-      </c>
-      <c r="K310" s="6">
+      <c r="J310" s="5">
+        <v>1</v>
+      </c>
+      <c r="K310" s="4">
         <v>0.77</v>
       </c>
-      <c r="L310" s="6">
+      <c r="L310" s="4">
         <v>4.2140000000000004</v>
       </c>
     </row>
-    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B311">
         <v>1</v>
       </c>
@@ -14183,7 +14233,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B312">
         <v>1</v>
       </c>
@@ -14218,7 +14268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B313">
         <v>1</v>
       </c>
@@ -14253,7 +14303,7 @@
         <v>4.2140000000000004</v>
       </c>
     </row>
-    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B314">
         <v>1</v>
       </c>
@@ -14288,7 +14338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B315">
         <v>1</v>
       </c>
@@ -14323,7 +14373,7 @@
         <v>3.9420000000000002</v>
       </c>
     </row>
-    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B316">
         <v>1</v>
       </c>
@@ -14358,7 +14408,7 @@
         <v>4.2670000000000003</v>
       </c>
     </row>
-    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B317">
         <v>1</v>
       </c>
@@ -14393,7 +14443,7 @@
         <v>2.891</v>
       </c>
     </row>
-    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B318">
         <v>1</v>
       </c>
@@ -14428,7 +14478,7 @@
         <v>4.0030000000000001</v>
       </c>
     </row>
-    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B319">
         <v>1</v>
       </c>
@@ -14463,7 +14513,7 @@
         <v>4.1550000000000002</v>
       </c>
     </row>
-    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B320">
         <v>1</v>
       </c>
@@ -14499,42 +14549,42 @@
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A321" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B321" s="6">
-        <v>0</v>
-      </c>
-      <c r="C321" s="6"/>
-      <c r="D321" s="6" t="s">
+      <c r="A321" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B321" s="4">
+        <v>0</v>
+      </c>
+      <c r="C321" s="4"/>
+      <c r="D321" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E321" s="6">
+      <c r="E321" s="4">
         <v>586</v>
       </c>
-      <c r="F321" s="6">
+      <c r="F321" s="4">
         <v>1467.74</v>
       </c>
-      <c r="G321" s="6">
+      <c r="G321" s="4">
         <v>56</v>
       </c>
-      <c r="H321" s="6">
+      <c r="H321" s="4">
         <v>11736</v>
       </c>
-      <c r="I321" s="6">
+      <c r="I321" s="4">
         <v>0.1036</v>
       </c>
-      <c r="J321" s="7">
-        <v>1</v>
-      </c>
-      <c r="K321" s="6">
+      <c r="J321" s="5">
+        <v>1</v>
+      </c>
+      <c r="K321" s="4">
         <v>1.05</v>
       </c>
-      <c r="L321" s="6">
+      <c r="L321" s="4">
         <v>4.1820000000000004</v>
       </c>
     </row>
-    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B322">
         <v>1</v>
       </c>
@@ -14569,7 +14619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B323">
         <v>1</v>
       </c>
@@ -14604,7 +14654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B324">
         <v>1</v>
       </c>
@@ -14639,7 +14689,7 @@
         <v>4.1459999999999999</v>
       </c>
     </row>
-    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B325">
         <v>1</v>
       </c>
@@ -14674,7 +14724,7 @@
         <v>4.43</v>
       </c>
     </row>
-    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B326">
         <v>1</v>
       </c>
@@ -14709,7 +14759,7 @@
         <v>2.125</v>
       </c>
     </row>
-    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B327">
         <v>1</v>
       </c>
@@ -14744,7 +14794,7 @@
         <v>4.1760000000000002</v>
       </c>
     </row>
-    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B328">
         <v>1</v>
       </c>
@@ -14779,7 +14829,7 @@
         <v>2.9169999999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B329">
         <v>1</v>
       </c>
@@ -14814,7 +14864,7 @@
         <v>4.1820000000000004</v>
       </c>
     </row>
-    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B330">
         <v>1</v>
       </c>
@@ -14849,7 +14899,7 @@
         <v>4.1890000000000001</v>
       </c>
     </row>
-    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B331">
         <v>1</v>
       </c>
@@ -14885,13 +14935,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L331" xr:uid="{F5397036-0183-4286-B84A-0A5418B57C39}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L331" xr:uid="{F5397036-0183-4286-B84A-0A5418B57C39}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14900,1097 +14944,1131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9753CC9C-30B1-4754-90D1-70A81D3C7DED}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+    <sheetView tabSelected="1" topLeftCell="G19" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1137</v>
+      </c>
+      <c r="F2" s="8">
+        <v>751.76</v>
+      </c>
+      <c r="G2" s="8">
+        <v>54</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1514</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0.58740000000000003</v>
+      </c>
+      <c r="J2" s="8">
+        <v>1</v>
+      </c>
+      <c r="K2" s="8">
+        <v>3.38</v>
+      </c>
+      <c r="L2" s="8">
+        <v>1.071</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B3" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2">
-        <v>1137</v>
-      </c>
-      <c r="F2">
-        <v>751.76</v>
-      </c>
-      <c r="G2">
+      <c r="E3" s="8">
+        <v>931</v>
+      </c>
+      <c r="F3" s="8">
+        <v>866.96</v>
+      </c>
+      <c r="G3" s="8">
         <v>54</v>
       </c>
-      <c r="H2">
+      <c r="H3" s="8">
         <v>1514</v>
       </c>
-      <c r="I2">
-        <v>0.58740000000000003</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>3.38</v>
-      </c>
-      <c r="L2">
-        <v>1.071</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="I3" s="8">
+        <v>0.27950000000000003</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1</v>
+      </c>
+      <c r="K3" s="8">
+        <v>4.88</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0.99099999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3">
-        <v>931</v>
-      </c>
-      <c r="F3">
-        <v>866.96</v>
-      </c>
-      <c r="G3">
+      <c r="E4" s="8">
+        <v>1027</v>
+      </c>
+      <c r="F4" s="8">
+        <v>820.55</v>
+      </c>
+      <c r="G4" s="8">
         <v>54</v>
       </c>
-      <c r="H3">
+      <c r="H4" s="8">
         <v>1514</v>
       </c>
-      <c r="I3">
-        <v>0.27950000000000003</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>4.88</v>
-      </c>
-      <c r="L3">
-        <v>0.99099999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="I4" s="8">
+        <v>0.39639999999999997</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1</v>
+      </c>
+      <c r="K4" s="8">
+        <v>5.14</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4">
-        <v>1027</v>
-      </c>
-      <c r="F4">
-        <v>820.55</v>
-      </c>
-      <c r="G4">
+      <c r="E5" s="8">
+        <v>932</v>
+      </c>
+      <c r="F5" s="8">
+        <v>862.75</v>
+      </c>
+      <c r="G5" s="8">
         <v>54</v>
       </c>
-      <c r="H4">
+      <c r="H5" s="8">
         <v>1514</v>
       </c>
-      <c r="I4">
-        <v>0.39639999999999997</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>5.14</v>
-      </c>
-      <c r="L4">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="I5" s="8">
+        <v>0.4577</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8">
+        <v>2.87</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5">
-        <v>932</v>
-      </c>
-      <c r="F5">
-        <v>862.75</v>
-      </c>
-      <c r="G5">
+      <c r="E6" s="8">
+        <v>850</v>
+      </c>
+      <c r="F6" s="8">
+        <v>934.96</v>
+      </c>
+      <c r="G6" s="8">
         <v>54</v>
       </c>
-      <c r="H5">
+      <c r="H6" s="8">
         <v>1514</v>
       </c>
-      <c r="I5">
-        <v>0.4577</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>2.87</v>
-      </c>
-      <c r="L5">
-        <v>0.878</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="I6" s="8">
+        <v>0.4078</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1</v>
+      </c>
+      <c r="K6" s="8">
+        <v>3.27</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6">
-        <v>850</v>
-      </c>
-      <c r="F6">
-        <v>934.96</v>
-      </c>
-      <c r="G6">
+      <c r="E7" s="8">
+        <v>851</v>
+      </c>
+      <c r="F7" s="8">
+        <v>934.87</v>
+      </c>
+      <c r="G7" s="8">
         <v>54</v>
       </c>
-      <c r="H6">
+      <c r="H7" s="8">
         <v>1514</v>
       </c>
-      <c r="I6">
-        <v>0.4078</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>3.27</v>
-      </c>
-      <c r="L6">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="I7" s="8">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8">
+        <v>3.93</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E7">
-        <v>851</v>
-      </c>
-      <c r="F7">
-        <v>934.87</v>
-      </c>
-      <c r="G7">
+      <c r="E8" s="8">
+        <v>816</v>
+      </c>
+      <c r="F8" s="8">
+        <v>963.41</v>
+      </c>
+      <c r="G8" s="8">
         <v>54</v>
       </c>
-      <c r="H7">
+      <c r="H8" s="8">
         <v>1514</v>
       </c>
-      <c r="I7">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>3.93</v>
-      </c>
-      <c r="L7">
-        <v>0.187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="I8" s="8">
+        <v>1.1059000000000001</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="8">
+        <v>5.19</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1.6779999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B9" s="8">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E8">
-        <v>816</v>
-      </c>
-      <c r="F8">
-        <v>963.41</v>
-      </c>
-      <c r="G8">
+      <c r="E9" s="8">
+        <v>846</v>
+      </c>
+      <c r="F9" s="8">
+        <v>940.66</v>
+      </c>
+      <c r="G9" s="8">
         <v>54</v>
       </c>
-      <c r="H8">
+      <c r="H9" s="8">
         <v>1514</v>
       </c>
-      <c r="I8">
-        <v>1.1059000000000001</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>5.19</v>
-      </c>
-      <c r="L8">
-        <v>1.6779999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="I9" s="8">
+        <v>0.94310000000000005</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1</v>
+      </c>
+      <c r="K9" s="8">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E9">
-        <v>846</v>
-      </c>
-      <c r="F9">
-        <v>940.66</v>
-      </c>
-      <c r="G9">
+      <c r="E10" s="8">
+        <v>829</v>
+      </c>
+      <c r="F10" s="8">
+        <v>952.57</v>
+      </c>
+      <c r="G10" s="8">
+        <v>46</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1514</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="L10" s="8">
+        <v>1.357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="8">
+        <v>779</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1005.23</v>
+      </c>
+      <c r="G11" s="8">
         <v>54</v>
       </c>
-      <c r="H9">
+      <c r="H11" s="8">
         <v>1514</v>
       </c>
-      <c r="I9">
-        <v>0.94310000000000005</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="L9">
-        <v>0.13100000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="I11" s="8">
+        <v>0.56189999999999996</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1</v>
+      </c>
+      <c r="K11" s="8">
+        <v>5.04</v>
+      </c>
+      <c r="L11" s="8">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E10">
-        <v>829</v>
-      </c>
-      <c r="F10">
-        <v>952.57</v>
-      </c>
-      <c r="G10">
+      <c r="E12" s="9">
+        <v>551</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1341.11</v>
+      </c>
+      <c r="G12" s="9">
+        <v>56</v>
+      </c>
+      <c r="H12" s="9">
+        <v>26568</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.1542</v>
+      </c>
+      <c r="J12" s="9">
+        <v>1</v>
+      </c>
+      <c r="K12" s="9">
+        <v>1.43</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0.36399999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="9">
+        <v>331</v>
+      </c>
+      <c r="F13" s="9">
+        <v>541.69000000000005</v>
+      </c>
+      <c r="G13" s="9">
+        <v>56</v>
+      </c>
+      <c r="H13" s="9">
+        <v>10081</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.1123</v>
+      </c>
+      <c r="J13" s="9">
+        <v>1</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0.46</v>
+      </c>
+      <c r="L13" s="9">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="9">
+        <v>451</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1569.45</v>
+      </c>
+      <c r="G14" s="9">
+        <v>56</v>
+      </c>
+      <c r="H14" s="9">
+        <v>44076</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0.17419999999999999</v>
+      </c>
+      <c r="J14" s="9">
+        <v>1</v>
+      </c>
+      <c r="K14" s="9">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="9">
+        <v>395</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1793.4</v>
+      </c>
+      <c r="G15" s="9">
+        <v>56</v>
+      </c>
+      <c r="H15" s="9">
+        <v>39816</v>
+      </c>
+      <c r="I15" s="9">
+        <v>9.2600000000000002E-2</v>
+      </c>
+      <c r="J15" s="9">
+        <v>1</v>
+      </c>
+      <c r="K15" s="9">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L15" s="9">
+        <v>2.0720000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="9">
+        <v>479</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1505.87</v>
+      </c>
+      <c r="G16" s="9">
+        <v>56</v>
+      </c>
+      <c r="H16" s="9">
+        <v>25616</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0.18659999999999999</v>
+      </c>
+      <c r="J16" s="9">
+        <v>1</v>
+      </c>
+      <c r="K16" s="9">
+        <v>1.08</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0.29499999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="9">
+        <v>376</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1870.47</v>
+      </c>
+      <c r="G17" s="9">
+        <v>56</v>
+      </c>
+      <c r="H17" s="9">
+        <v>55536</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0.15559999999999999</v>
+      </c>
+      <c r="J17" s="9">
+        <v>1</v>
+      </c>
+      <c r="K17" s="9">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="9">
+        <v>344</v>
+      </c>
+      <c r="F18" s="9">
+        <v>2037.13</v>
+      </c>
+      <c r="G18" s="9">
+        <v>56</v>
+      </c>
+      <c r="H18" s="9">
+        <v>42396</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.1381</v>
+      </c>
+      <c r="J18" s="9">
+        <v>1</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0.98</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="9">
+        <v>469</v>
+      </c>
+      <c r="F19" s="9">
+        <v>1525.38</v>
+      </c>
+      <c r="G19" s="9">
+        <v>56</v>
+      </c>
+      <c r="H19" s="9">
+        <v>52596</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0.17349999999999999</v>
+      </c>
+      <c r="J19" s="9">
+        <v>1</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0.93</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="9">
+        <v>377</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1866.15</v>
+      </c>
+      <c r="G20" s="9">
+        <v>56</v>
+      </c>
+      <c r="H20" s="9">
+        <v>58276</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0.14960000000000001</v>
+      </c>
+      <c r="J20" s="9">
+        <v>1</v>
+      </c>
+      <c r="K20" s="9">
+        <v>1.18</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="9">
+        <v>352</v>
+      </c>
+      <c r="F21" s="9">
+        <v>1994.16</v>
+      </c>
+      <c r="G21" s="9">
+        <v>56</v>
+      </c>
+      <c r="H21" s="9">
+        <v>35556</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0.14419999999999999</v>
+      </c>
+      <c r="J21" s="9">
+        <v>1</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0.92</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="10">
+        <v>0</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="10">
+        <v>595</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1477.01</v>
+      </c>
+      <c r="G22" s="10">
+        <v>56</v>
+      </c>
+      <c r="H22" s="10">
+        <v>16116</v>
+      </c>
+      <c r="I22" s="10">
+        <v>7.5499999999999998E-2</v>
+      </c>
+      <c r="J22" s="10">
+        <v>1</v>
+      </c>
+      <c r="K22" s="10">
+        <v>0.62</v>
+      </c>
+      <c r="L22" s="10">
+        <v>3.754</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="10">
+        <v>664</v>
+      </c>
+      <c r="F23" s="10">
+        <v>1345.92</v>
+      </c>
+      <c r="G23" s="10">
+        <v>56</v>
+      </c>
+      <c r="H23" s="10">
+        <v>11736</v>
+      </c>
+      <c r="I23" s="10">
+        <v>9.2399999999999996E-2</v>
+      </c>
+      <c r="J23" s="10">
+        <v>1</v>
+      </c>
+      <c r="K23" s="10">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L23" s="10">
+        <v>4.2290000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H10">
-        <v>1514</v>
-      </c>
-      <c r="I10">
-        <v>0.95250000000000001</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>4.71</v>
-      </c>
-      <c r="L10">
-        <v>1.357</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B24" s="10">
+        <v>0</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E11">
-        <v>779</v>
-      </c>
-      <c r="F11">
-        <v>1005.23</v>
-      </c>
-      <c r="G11">
-        <v>54</v>
-      </c>
-      <c r="H11">
-        <v>1514</v>
-      </c>
-      <c r="I11">
-        <v>0.56189999999999996</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>5.04</v>
-      </c>
-      <c r="L11">
-        <v>1.76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E24" s="10">
+        <v>705</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1248.47</v>
+      </c>
+      <c r="G24" s="10">
+        <v>56</v>
+      </c>
+      <c r="H24" s="10">
+        <v>8816</v>
+      </c>
+      <c r="I24" s="10">
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="J24" s="10">
+        <v>1</v>
+      </c>
+      <c r="K24" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="L24" s="10">
+        <v>5.1559999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="10">
+        <v>0</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E12">
-        <v>551</v>
-      </c>
-      <c r="F12">
-        <v>1341.11</v>
-      </c>
-      <c r="G12">
+      <c r="E25" s="10">
+        <v>649</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1330.59</v>
+      </c>
+      <c r="G25" s="10">
         <v>56</v>
       </c>
-      <c r="H12">
-        <v>26568</v>
-      </c>
-      <c r="I12">
-        <v>0.1542</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1.43</v>
-      </c>
-      <c r="L12">
-        <v>0.36399999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="H25" s="10">
+        <v>11416</v>
+      </c>
+      <c r="I25" s="10">
+        <v>8.0100000000000005E-2</v>
+      </c>
+      <c r="J25" s="10">
+        <v>1</v>
+      </c>
+      <c r="K25" s="10">
+        <v>0.44</v>
+      </c>
+      <c r="L25" s="10">
+        <v>5.9969999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="10">
+        <v>0</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E13">
-        <v>331</v>
-      </c>
-      <c r="F13">
-        <v>541.69000000000005</v>
-      </c>
-      <c r="G13">
+      <c r="E26" s="10">
+        <v>674</v>
+      </c>
+      <c r="F26" s="10">
+        <v>1338.75</v>
+      </c>
+      <c r="G26" s="10">
         <v>56</v>
       </c>
-      <c r="H13">
-        <v>10081</v>
-      </c>
-      <c r="I13">
-        <v>0.1123</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>0.46</v>
-      </c>
-      <c r="L13">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="H26" s="10">
+        <v>17576</v>
+      </c>
+      <c r="I26" s="10">
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="J26" s="10">
+        <v>1</v>
+      </c>
+      <c r="K26" s="10">
+        <v>0.54</v>
+      </c>
+      <c r="L26" s="10">
+        <v>2.5009999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="10">
+        <v>0</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E14">
-        <v>451</v>
-      </c>
-      <c r="F14">
-        <v>1569.45</v>
-      </c>
-      <c r="G14">
+      <c r="E27" s="10">
+        <v>619</v>
+      </c>
+      <c r="F27" s="10">
+        <v>1385.51</v>
+      </c>
+      <c r="G27" s="10">
         <v>56</v>
       </c>
-      <c r="H14">
-        <v>44076</v>
-      </c>
-      <c r="I14">
-        <v>0.17419999999999999</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="H27" s="10">
+        <v>10276</v>
+      </c>
+      <c r="I27" s="10">
+        <v>9.1300000000000006E-2</v>
+      </c>
+      <c r="J27" s="10">
+        <v>1</v>
+      </c>
+      <c r="K27" s="10">
+        <v>0.54</v>
+      </c>
+      <c r="L27" s="10">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="10">
+        <v>0</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E15">
-        <v>395</v>
-      </c>
-      <c r="F15">
-        <v>1793.4</v>
-      </c>
-      <c r="G15">
+      <c r="E28" s="10">
+        <v>680</v>
+      </c>
+      <c r="F28" s="10">
+        <v>1344.19</v>
+      </c>
+      <c r="G28" s="10">
         <v>56</v>
       </c>
-      <c r="H15">
-        <v>39816</v>
-      </c>
-      <c r="I15">
-        <v>9.2600000000000002E-2</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="L15">
-        <v>2.0720000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="H28" s="10">
+        <v>8816</v>
+      </c>
+      <c r="I28" s="10">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="J28" s="10">
+        <v>1</v>
+      </c>
+      <c r="K28" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="L28" s="10">
+        <v>2.8969999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="10">
+        <v>0</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E16">
-        <v>479</v>
-      </c>
-      <c r="F16">
-        <v>1505.87</v>
-      </c>
-      <c r="G16">
+      <c r="E29" s="10">
+        <v>642</v>
+      </c>
+      <c r="F29" s="10">
+        <v>1356.05</v>
+      </c>
+      <c r="G29" s="10">
         <v>56</v>
       </c>
-      <c r="H16">
-        <v>25616</v>
-      </c>
-      <c r="I16">
-        <v>0.18659999999999999</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1.08</v>
-      </c>
-      <c r="L16">
-        <v>0.29499999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="H29" s="10">
+        <v>11736</v>
+      </c>
+      <c r="I29" s="10">
+        <v>9.01E-2</v>
+      </c>
+      <c r="J29" s="10">
+        <v>1</v>
+      </c>
+      <c r="K29" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="L29" s="10">
+        <v>3.218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="10">
+        <v>0</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E17">
-        <v>376</v>
-      </c>
-      <c r="F17">
-        <v>1870.47</v>
-      </c>
-      <c r="G17">
+      <c r="E30" s="10">
+        <v>642</v>
+      </c>
+      <c r="F30" s="10">
+        <v>1340.93</v>
+      </c>
+      <c r="G30" s="10">
         <v>56</v>
       </c>
-      <c r="H17">
-        <v>55536</v>
-      </c>
-      <c r="I17">
-        <v>0.15559999999999999</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="L17">
-        <v>0.218</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="H30" s="10">
+        <v>11736</v>
+      </c>
+      <c r="I30" s="10">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="J30" s="10">
+        <v>1</v>
+      </c>
+      <c r="K30" s="10">
+        <v>0.77</v>
+      </c>
+      <c r="L30" s="10">
+        <v>4.2140000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="10">
+        <v>0</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E18">
-        <v>344</v>
-      </c>
-      <c r="F18">
-        <v>2037.13</v>
-      </c>
-      <c r="G18">
+      <c r="E31" s="10">
+        <v>586</v>
+      </c>
+      <c r="F31" s="10">
+        <v>1467.74</v>
+      </c>
+      <c r="G31" s="10">
         <v>56</v>
       </c>
-      <c r="H18">
-        <v>42396</v>
-      </c>
-      <c r="I18">
-        <v>0.1381</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>0.98</v>
-      </c>
-      <c r="L18">
-        <v>0.182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19">
-        <v>469</v>
-      </c>
-      <c r="F19">
-        <v>1525.38</v>
-      </c>
-      <c r="G19">
-        <v>56</v>
-      </c>
-      <c r="H19">
-        <v>52596</v>
-      </c>
-      <c r="I19">
-        <v>0.17349999999999999</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>0.93</v>
-      </c>
-      <c r="L19">
-        <v>0.34200000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20">
-        <v>377</v>
-      </c>
-      <c r="F20">
-        <v>1866.15</v>
-      </c>
-      <c r="G20">
-        <v>56</v>
-      </c>
-      <c r="H20">
-        <v>58276</v>
-      </c>
-      <c r="I20">
-        <v>0.14960000000000001</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>1.18</v>
-      </c>
-      <c r="L20">
-        <v>0.216</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21">
-        <v>352</v>
-      </c>
-      <c r="F21">
-        <v>1994.16</v>
-      </c>
-      <c r="G21">
-        <v>56</v>
-      </c>
-      <c r="H21">
-        <v>35556</v>
-      </c>
-      <c r="I21">
-        <v>0.14419999999999999</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>0.92</v>
-      </c>
-      <c r="L21">
-        <v>0.20699999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22">
-        <v>595</v>
-      </c>
-      <c r="F22">
-        <v>1477.01</v>
-      </c>
-      <c r="G22">
-        <v>56</v>
-      </c>
-      <c r="H22">
-        <v>16116</v>
-      </c>
-      <c r="I22">
-        <v>7.5499999999999998E-2</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>0.62</v>
-      </c>
-      <c r="L22">
-        <v>3.754</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23">
-        <v>664</v>
-      </c>
-      <c r="F23">
-        <v>1345.92</v>
-      </c>
-      <c r="G23">
-        <v>56</v>
-      </c>
-      <c r="H23">
+      <c r="H31" s="10">
         <v>11736</v>
       </c>
-      <c r="I23">
-        <v>9.2399999999999996E-2</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="L23">
-        <v>4.2290000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24">
-        <v>705</v>
-      </c>
-      <c r="F24">
-        <v>1248.47</v>
-      </c>
-      <c r="G24">
-        <v>56</v>
-      </c>
-      <c r="H24">
-        <v>8816</v>
-      </c>
-      <c r="I24">
-        <v>7.8399999999999997E-2</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>0.35</v>
-      </c>
-      <c r="L24">
-        <v>5.1559999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25">
-        <v>649</v>
-      </c>
-      <c r="F25">
-        <v>1330.59</v>
-      </c>
-      <c r="G25">
-        <v>56</v>
-      </c>
-      <c r="H25">
-        <v>11416</v>
-      </c>
-      <c r="I25">
-        <v>8.0100000000000005E-2</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>0.44</v>
-      </c>
-      <c r="L25">
-        <v>5.9969999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26">
-        <v>674</v>
-      </c>
-      <c r="F26">
-        <v>1338.75</v>
-      </c>
-      <c r="G26">
-        <v>56</v>
-      </c>
-      <c r="H26">
-        <v>17576</v>
-      </c>
-      <c r="I26">
-        <v>8.4699999999999998E-2</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>0.54</v>
-      </c>
-      <c r="L26">
-        <v>2.5009999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27">
-        <v>619</v>
-      </c>
-      <c r="F27">
-        <v>1385.51</v>
-      </c>
-      <c r="G27">
-        <v>56</v>
-      </c>
-      <c r="H27">
-        <v>10276</v>
-      </c>
-      <c r="I27">
-        <v>9.1300000000000006E-2</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>0.54</v>
-      </c>
-      <c r="L27">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28">
-        <v>680</v>
-      </c>
-      <c r="F28">
-        <v>1344.19</v>
-      </c>
-      <c r="G28">
-        <v>56</v>
-      </c>
-      <c r="H28">
-        <v>8816</v>
-      </c>
-      <c r="I28">
-        <v>7.9699999999999993E-2</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>0.67</v>
-      </c>
-      <c r="L28">
-        <v>2.8969999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29">
-        <v>642</v>
-      </c>
-      <c r="F29">
-        <v>1356.05</v>
-      </c>
-      <c r="G29">
-        <v>56</v>
-      </c>
-      <c r="H29">
-        <v>11736</v>
-      </c>
-      <c r="I29">
-        <v>9.01E-2</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>0.95</v>
-      </c>
-      <c r="L29">
-        <v>3.218</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30">
-        <v>642</v>
-      </c>
-      <c r="F30">
-        <v>1340.93</v>
-      </c>
-      <c r="G30">
-        <v>56</v>
-      </c>
-      <c r="H30">
-        <v>11736</v>
-      </c>
-      <c r="I30">
-        <v>9.2200000000000004E-2</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>0.77</v>
-      </c>
-      <c r="L30">
-        <v>4.2140000000000004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31">
-        <v>586</v>
-      </c>
-      <c r="F31">
-        <v>1467.74</v>
-      </c>
-      <c r="G31">
-        <v>56</v>
-      </c>
-      <c r="H31">
-        <v>11736</v>
-      </c>
-      <c r="I31">
+      <c r="I31" s="10">
         <v>0.1036</v>
       </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31">
+      <c r="J31" s="10">
+        <v>1</v>
+      </c>
+      <c r="K31" s="10">
         <v>1.05</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="10">
         <v>4.1820000000000004</v>
       </c>
     </row>
